--- a/003 - 6 KPI Card Variants/5. Power BI Measures Documentation MTD-YTD.xlsx
+++ b/003 - 6 KPI Card Variants/5. Power BI Measures Documentation MTD-YTD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\UO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84B40EA-BF11-4F1C-AF88-E1234B840099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5092BF-9281-4248-B6F9-C1526FFB2199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12" yWindow="-732" windowWidth="23064" windowHeight="14076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,9 +199,6 @@
     <t>Zero baseline for positive error bars.</t>
   </si>
   <si>
-    <t>Returns Y value slightly below axis if AC &lt; PY; draws red dot marker.</t>
-  </si>
-  <si>
     <t>Returns variance only for months ≤ selected month; zero otherwise.</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
       </rPr>
       <t xml:space="preserve"> includes dynamic format string.</t>
     </r>
+  </si>
+  <si>
+    <t>Returns Y-axis value slightly below axis if AC &lt; PY; draws red dot marker.</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,13 +1017,13 @@
     <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I2" s="40"/>
     </row>
@@ -1041,22 +1041,22 @@
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1067,25 +1067,25 @@
         <v>41</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1096,25 +1096,25 @@
         <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1125,25 +1125,25 @@
         <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1154,25 +1154,25 @@
         <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1183,25 +1183,25 @@
         <v>45</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1212,25 +1212,25 @@
         <v>46</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1241,25 +1241,25 @@
         <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1267,28 +1267,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1296,28 +1296,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1328,25 +1328,25 @@
         <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1357,25 +1357,25 @@
         <v>49</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1386,25 +1386,25 @@
         <v>50</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1415,25 +1415,25 @@
         <v>51</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1444,25 +1444,25 @@
         <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1473,25 +1473,25 @@
         <v>53</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1499,28 +1499,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1528,28 +1528,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1557,28 +1557,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1589,25 +1589,25 @@
         <v>54</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1618,25 +1618,25 @@
         <v>55</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1644,28 +1644,28 @@
         <v>23</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1673,28 +1673,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1702,28 +1702,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1731,28 +1731,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1760,28 +1760,28 @@
         <v>27</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1792,25 +1792,25 @@
         <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1821,25 +1821,25 @@
         <v>57</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1847,28 +1847,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1876,28 +1876,28 @@
         <v>31</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1905,28 +1905,28 @@
         <v>32</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1934,28 +1934,28 @@
         <v>33</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1963,28 +1963,28 @@
         <v>34</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1992,28 +1992,28 @@
         <v>35</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>91</v>
-      </c>
       <c r="I37" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2021,28 +2021,28 @@
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2050,28 +2050,28 @@
         <v>37</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2079,28 +2079,28 @@
         <v>38</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2108,28 +2108,28 @@
         <v>39</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2137,28 +2137,28 @@
         <v>40</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">

--- a/003 - 6 KPI Card Variants/5. Power BI Measures Documentation MTD-YTD.xlsx
+++ b/003 - 6 KPI Card Variants/5. Power BI Measures Documentation MTD-YTD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\5B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5092BF-9281-4248-B6F9-C1526FFB2199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2474CA09-29FC-436C-84AD-034C683D1BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12" yWindow="-732" windowWidth="23064" windowHeight="14076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,7 +1001,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,7 +1798,7 @@
         <v>89</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F30" s="26" t="s">
         <v>89</v>
@@ -1827,7 +1827,7 @@
         <v>89</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F31" s="26" t="s">
         <v>89</v>
@@ -1862,7 +1862,7 @@
         <v>89</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H32" s="26" t="s">
         <v>89</v>
